--- a/Dry Matter Means Separation Results.xlsx
+++ b/Dry Matter Means Separation Results.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H50"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,7 +365,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>DM</t>
+          <t>Tons.DM.acre</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -406,19 +406,19 @@
         </is>
       </c>
       <c r="B2">
-        <v>6.679999999999995</v>
+        <v>6.680000000000001</v>
       </c>
       <c r="C2">
-        <v>0.7881979971613533</v>
+        <v>0.7881979978335186</v>
       </c>
       <c r="D2">
-        <v>41.9006911550073</v>
+        <v>41.90069085304015</v>
       </c>
       <c r="E2">
-        <v>4.165846165063775</v>
+        <v>4.181195525383869</v>
       </c>
       <c r="F2">
-        <v>9.194153834936216</v>
+        <v>9.178804474616133</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -438,19 +438,19 @@
         </is>
       </c>
       <c r="B3">
-        <v>6.602499999999996</v>
+        <v>6.602500000000002</v>
       </c>
       <c r="C3">
-        <v>0.7881979971613537</v>
+        <v>0.7881979978335186</v>
       </c>
       <c r="D3">
-        <v>41.90069115500709</v>
+        <v>41.90069085304015</v>
       </c>
       <c r="E3">
-        <v>4.088346165063774</v>
+        <v>4.10369552538387</v>
       </c>
       <c r="F3">
-        <v>9.116653834936217</v>
+        <v>9.101304474616134</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -470,19 +470,19 @@
         </is>
       </c>
       <c r="B4">
-        <v>6.364999999999995</v>
+        <v>6.365000000000001</v>
       </c>
       <c r="C4">
-        <v>0.7881979971613533</v>
+        <v>0.7881979978335186</v>
       </c>
       <c r="D4">
-        <v>41.90069115500719</v>
+        <v>41.90069085304036</v>
       </c>
       <c r="E4">
-        <v>3.850846165063774</v>
+        <v>3.86619552538387</v>
       </c>
       <c r="F4">
-        <v>8.879153834936215</v>
+        <v>8.863804474616131</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -502,19 +502,19 @@
         </is>
       </c>
       <c r="B5">
-        <v>5.524999999999995</v>
+        <v>5.525000000000001</v>
       </c>
       <c r="C5">
-        <v>0.7881979971613533</v>
+        <v>0.7881979978335188</v>
       </c>
       <c r="D5">
-        <v>41.90069115500719</v>
+        <v>41.90069085304025</v>
       </c>
       <c r="E5">
-        <v>3.010846165063775</v>
+        <v>3.026195525383869</v>
       </c>
       <c r="F5">
-        <v>8.039153834936215</v>
+        <v>8.023804474616133</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -534,19 +534,19 @@
         </is>
       </c>
       <c r="B6">
-        <v>5.467499999999996</v>
+        <v>5.4675</v>
       </c>
       <c r="C6">
-        <v>0.7881979971613535</v>
+        <v>0.7881979978335188</v>
       </c>
       <c r="D6">
-        <v>41.90069115500719</v>
+        <v>41.90069085304015</v>
       </c>
       <c r="E6">
-        <v>2.953346165063774</v>
+        <v>2.968695525383868</v>
       </c>
       <c r="F6">
-        <v>7.981653834936218</v>
+        <v>7.966304474616132</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -566,19 +566,19 @@
         </is>
       </c>
       <c r="B7">
-        <v>4.872499999999995</v>
+        <v>4.872500000000001</v>
       </c>
       <c r="C7">
-        <v>0.7881979971613534</v>
+        <v>0.7881979978335188</v>
       </c>
       <c r="D7">
-        <v>41.90069115500709</v>
+        <v>41.90069085304015</v>
       </c>
       <c r="E7">
-        <v>2.358346165063774</v>
+        <v>2.373695525383869</v>
       </c>
       <c r="F7">
-        <v>7.386653834936217</v>
+        <v>7.371304474616133</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -594,23 +594,23 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>VWG4113</t>
+          <t>NWG4113</t>
         </is>
       </c>
       <c r="B8">
-        <v>4.739736540737839</v>
+        <v>4.526754485980872</v>
       </c>
       <c r="C8">
-        <v>1.538538341908044</v>
+        <v>0.9029057351579813</v>
       </c>
       <c r="D8">
-        <v>51.99954406508302</v>
+        <v>46.74325657442868</v>
       </c>
       <c r="E8">
-        <v>-0.1086921679695925</v>
+        <v>1.682594581398823</v>
       </c>
       <c r="F8">
-        <v>9.588165249445272</v>
+        <v>7.370914390562921</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -626,23 +626,23 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>NWG4113</t>
+          <t>CRS-1</t>
         </is>
       </c>
       <c r="B9">
-        <v>4.526754486420714</v>
+        <v>4.375</v>
       </c>
       <c r="C9">
-        <v>0.902905734673369</v>
+        <v>0.7881979978335188</v>
       </c>
       <c r="D9">
-        <v>46.74325677176612</v>
+        <v>41.90069085304015</v>
       </c>
       <c r="E9">
-        <v>1.665313526661941</v>
+        <v>1.876195525383868</v>
       </c>
       <c r="F9">
-        <v>7.388195446179488</v>
+        <v>6.873804474616133</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -658,23 +658,23 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CRS-1</t>
+          <t>Vega</t>
         </is>
       </c>
       <c r="B10">
-        <v>4.374999999999996</v>
+        <v>4.137500000000001</v>
       </c>
       <c r="C10">
-        <v>0.7881979971613533</v>
+        <v>0.7881979978335188</v>
       </c>
       <c r="D10">
-        <v>41.90069115500719</v>
+        <v>41.90069085304025</v>
       </c>
       <c r="E10">
-        <v>1.860846165063775</v>
+        <v>1.638695525383869</v>
       </c>
       <c r="F10">
-        <v>6.889153834936216</v>
+        <v>6.636304474616133</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -690,23 +690,23 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Vega</t>
+          <t>Felina32</t>
         </is>
       </c>
       <c r="B11">
-        <v>4.137499999999996</v>
+        <v>4.007500000000001</v>
       </c>
       <c r="C11">
-        <v>0.7881979971613535</v>
+        <v>0.7881979978335186</v>
       </c>
       <c r="D11">
-        <v>41.90069115500719</v>
+        <v>41.90069085304015</v>
       </c>
       <c r="E11">
-        <v>1.623346165063774</v>
+        <v>1.508695525383869</v>
       </c>
       <c r="F11">
-        <v>6.651653834936218</v>
+        <v>6.506304474616133</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -722,23 +722,23 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Felina32</t>
+          <t>NWG2463</t>
         </is>
       </c>
       <c r="B12">
-        <v>4.007499999999996</v>
+        <v>3.5125</v>
       </c>
       <c r="C12">
-        <v>0.7881979971613532</v>
+        <v>0.7881979978335187</v>
       </c>
       <c r="D12">
-        <v>41.9006911550073</v>
+        <v>41.90069085304015</v>
       </c>
       <c r="E12">
-        <v>1.493346165063776</v>
+        <v>1.013695525383868</v>
       </c>
       <c r="F12">
-        <v>6.521653834936215</v>
+        <v>6.011304474616132</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -754,23 +754,23 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>NWG2463</t>
+          <t>Earlina</t>
         </is>
       </c>
       <c r="B13">
-        <v>3.512499999999995</v>
+        <v>3.490436210149289</v>
       </c>
       <c r="C13">
-        <v>0.7881979971613533</v>
+        <v>0.9029057351579812</v>
       </c>
       <c r="D13">
-        <v>41.9006911550073</v>
+        <v>46.74325657442868</v>
       </c>
       <c r="E13">
-        <v>0.9983461650637748</v>
+        <v>0.6462763055672403</v>
       </c>
       <c r="F13">
-        <v>6.026653834936215</v>
+        <v>6.334596114731338</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -786,23 +786,23 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Earlina</t>
+          <t>NWG4000</t>
         </is>
       </c>
       <c r="B14">
-        <v>3.490436208690335</v>
+        <v>3.2875</v>
       </c>
       <c r="C14">
-        <v>0.9029057346733687</v>
+        <v>0.7881979978335186</v>
       </c>
       <c r="D14">
-        <v>46.74325677176612</v>
+        <v>41.90069085304004</v>
       </c>
       <c r="E14">
-        <v>0.6289952489315622</v>
+        <v>0.7886955253838681</v>
       </c>
       <c r="F14">
-        <v>6.351877168449107</v>
+        <v>5.786304474616133</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -818,23 +818,23 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>NWG4000</t>
+          <t>NWG2730</t>
         </is>
       </c>
       <c r="B15">
-        <v>3.287499999999995</v>
+        <v>3.117500000000001</v>
       </c>
       <c r="C15">
-        <v>0.7881979971613533</v>
+        <v>0.7881979978335186</v>
       </c>
       <c r="D15">
-        <v>41.90069115500709</v>
+        <v>41.90069085304015</v>
       </c>
       <c r="E15">
-        <v>0.7733461650637738</v>
+        <v>0.6186955253838686</v>
       </c>
       <c r="F15">
-        <v>5.801653834936216</v>
+        <v>5.616304474616133</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -850,23 +850,23 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>NWG2730</t>
+          <t>Bialob</t>
         </is>
       </c>
       <c r="B16">
-        <v>3.117499999999995</v>
+        <v>3.0975</v>
       </c>
       <c r="C16">
-        <v>0.7881979971613532</v>
+        <v>0.7881979978335187</v>
       </c>
       <c r="D16">
-        <v>41.90069115500719</v>
+        <v>41.90069085304004</v>
       </c>
       <c r="E16">
-        <v>0.6033461650637753</v>
+        <v>0.5986955253838682</v>
       </c>
       <c r="F16">
-        <v>5.631653834936215</v>
+        <v>5.596304474616132</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -882,27 +882,27 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Bialob</t>
+          <t>Henola</t>
         </is>
       </c>
       <c r="B17">
-        <v>3.097499999999994</v>
+        <v>2.515</v>
       </c>
       <c r="C17">
-        <v>0.7881979971613533</v>
+        <v>0.7881979978335187</v>
       </c>
       <c r="D17">
-        <v>41.90069115500719</v>
+        <v>41.90069085304015</v>
       </c>
       <c r="E17">
-        <v>0.5833461650637735</v>
+        <v>0.01619552538386815</v>
       </c>
       <c r="F17">
-        <v>5.611653834936215</v>
+        <v>5.013804474616132</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> abc</t>
+          <t xml:space="preserve">  bc</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -914,27 +914,27 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Henola</t>
+          <t>Amaze</t>
         </is>
       </c>
       <c r="B18">
-        <v>2.514999999999994</v>
+        <v>1.969999999999984</v>
       </c>
       <c r="C18">
-        <v>0.7881979971613533</v>
+        <v>0.7881979978335235</v>
       </c>
       <c r="D18">
-        <v>41.9006911550073</v>
+        <v>41.90069085304068</v>
       </c>
       <c r="E18">
-        <v>0.000846165063774329</v>
+        <v>-0.5288044746161604</v>
       </c>
       <c r="F18">
-        <v>5.029153834936214</v>
+        <v>4.468804474616129</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t xml:space="preserve">  bc</t>
+          <t xml:space="preserve">   c</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -946,23 +946,23 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Amaze</t>
+          <t>CFX-2</t>
         </is>
       </c>
       <c r="B19">
-        <v>1.969999999999978</v>
+        <v>1.7775</v>
       </c>
       <c r="C19">
-        <v>0.7881979971613511</v>
+        <v>0.7881979978335187</v>
       </c>
       <c r="D19">
-        <v>41.90069115500688</v>
+        <v>41.90069085304015</v>
       </c>
       <c r="E19">
-        <v>-0.544153834936236</v>
+        <v>-0.7213044746161317</v>
       </c>
       <c r="F19">
-        <v>4.484153834936192</v>
+        <v>4.276304474616133</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -978,59 +978,59 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CFX-2</t>
+          <t>Fibror</t>
         </is>
       </c>
       <c r="B20">
-        <v>1.777499999999995</v>
+        <v>9.887499999999998</v>
       </c>
       <c r="C20">
-        <v>0.7881979971613532</v>
+        <v>0.6029817605003132</v>
       </c>
       <c r="D20">
-        <v>41.90069115500719</v>
+        <v>35.88392971254551</v>
       </c>
       <c r="E20">
-        <v>-0.7366538349362248</v>
+        <v>7.955804012851655</v>
       </c>
       <c r="F20">
-        <v>4.291653834936215</v>
+        <v>11.81919598714834</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t xml:space="preserve">   c</t>
+          <t xml:space="preserve"> a       </t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Buffalo County</t>
+          <t>Chippewa County</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Fibror</t>
+          <t>Carmenecta</t>
         </is>
       </c>
       <c r="B21">
-        <v>9.887499999999998</v>
+        <v>9.4</v>
       </c>
       <c r="C21">
-        <v>0.6029817605003132</v>
+        <v>0.602981760500313</v>
       </c>
       <c r="D21">
-        <v>35.88392971254551</v>
+        <v>35.88392971254565</v>
       </c>
       <c r="E21">
-        <v>7.955804012851655</v>
+        <v>7.468304012851659</v>
       </c>
       <c r="F21">
-        <v>11.81919598714834</v>
+        <v>11.33169598714834</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> a       </t>
+          <t xml:space="preserve"> ab      </t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1042,27 +1042,27 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Carmenecta</t>
+          <t>Enectarol</t>
         </is>
       </c>
       <c r="B22">
-        <v>9.4</v>
+        <v>9.022499999999999</v>
       </c>
       <c r="C22">
         <v>0.602981760500313</v>
       </c>
       <c r="D22">
-        <v>35.88392971254565</v>
+        <v>35.88392971254542</v>
       </c>
       <c r="E22">
-        <v>7.468304012851659</v>
+        <v>7.090804012851656</v>
       </c>
       <c r="F22">
-        <v>11.33169598714834</v>
+        <v>10.95419598714834</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ab      </t>
+          <t xml:space="preserve"> abc     </t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1074,27 +1074,27 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Enectarol</t>
+          <t>Futura</t>
         </is>
       </c>
       <c r="B23">
-        <v>9.022499999999999</v>
+        <v>8.352499999999999</v>
       </c>
       <c r="C23">
         <v>0.602981760500313</v>
       </c>
       <c r="D23">
-        <v>35.88392971254542</v>
+        <v>35.88392971254565</v>
       </c>
       <c r="E23">
-        <v>7.090804012851656</v>
+        <v>6.420804012851658</v>
       </c>
       <c r="F23">
-        <v>10.95419598714834</v>
+        <v>10.28419598714834</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> abc     </t>
+          <t xml:space="preserve"> abcd    </t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1106,23 +1106,23 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Futura</t>
+          <t>Santhica</t>
         </is>
       </c>
       <c r="B24">
-        <v>8.352499999999999</v>
+        <v>7.974999999999998</v>
       </c>
       <c r="C24">
-        <v>0.602981760500313</v>
+        <v>0.6029817605003132</v>
       </c>
       <c r="D24">
-        <v>35.88392971254565</v>
+        <v>35.88392971254551</v>
       </c>
       <c r="E24">
-        <v>6.420804012851658</v>
+        <v>6.043304012851656</v>
       </c>
       <c r="F24">
-        <v>10.28419598714834</v>
+        <v>9.906695987148339</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1138,23 +1138,23 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Santhica</t>
+          <t>Tibor</t>
         </is>
       </c>
       <c r="B25">
-        <v>7.974999999999998</v>
+        <v>7.422499999999999</v>
       </c>
       <c r="C25">
-        <v>0.6029817605003132</v>
+        <v>0.602981760500313</v>
       </c>
       <c r="D25">
-        <v>35.88392971254551</v>
+        <v>35.88392971254558</v>
       </c>
       <c r="E25">
-        <v>6.043304012851656</v>
+        <v>5.490804012851657</v>
       </c>
       <c r="F25">
-        <v>9.906695987148339</v>
+        <v>9.354195987148341</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1170,23 +1170,23 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Tibor</t>
+          <t>Felina</t>
         </is>
       </c>
       <c r="B26">
-        <v>7.422499999999999</v>
+        <v>7.3675</v>
       </c>
       <c r="C26">
         <v>0.602981760500313</v>
       </c>
       <c r="D26">
-        <v>35.88392971254558</v>
+        <v>35.88392971254551</v>
       </c>
       <c r="E26">
-        <v>5.490804012851657</v>
+        <v>5.435804012851658</v>
       </c>
       <c r="F26">
-        <v>9.354195987148341</v>
+        <v>9.299195987148341</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1202,27 +1202,27 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Felina</t>
+          <t>Bialob</t>
         </is>
       </c>
       <c r="B27">
-        <v>7.3675</v>
+        <v>7.114999999999998</v>
       </c>
       <c r="C27">
-        <v>0.602981760500313</v>
+        <v>0.6029817605003132</v>
       </c>
       <c r="D27">
-        <v>35.88392971254551</v>
+        <v>35.88392971254558</v>
       </c>
       <c r="E27">
-        <v>5.435804012851658</v>
+        <v>5.183304012851656</v>
       </c>
       <c r="F27">
-        <v>9.299195987148341</v>
+        <v>9.04669598714834</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> abcd    </t>
+          <t xml:space="preserve"> abcde   </t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1234,23 +1234,23 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Bialob</t>
+          <t>NWG2730</t>
         </is>
       </c>
       <c r="B28">
-        <v>7.114999999999998</v>
+        <v>6.965</v>
       </c>
       <c r="C28">
-        <v>0.6029817605003132</v>
+        <v>0.602981760500313</v>
       </c>
       <c r="D28">
-        <v>35.88392971254558</v>
+        <v>35.88392971254542</v>
       </c>
       <c r="E28">
-        <v>5.183304012851656</v>
+        <v>5.033304012851657</v>
       </c>
       <c r="F28">
-        <v>9.04669598714834</v>
+        <v>8.896695987148343</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1266,11 +1266,11 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>NWG2730</t>
+          <t>NWG4113</t>
         </is>
       </c>
       <c r="B29">
-        <v>6.965</v>
+        <v>6.902499999999998</v>
       </c>
       <c r="C29">
         <v>0.602981760500313</v>
@@ -1279,10 +1279,10 @@
         <v>35.88392971254542</v>
       </c>
       <c r="E29">
-        <v>5.033304012851657</v>
+        <v>4.970804012851655</v>
       </c>
       <c r="F29">
-        <v>8.896695987148343</v>
+        <v>8.834195987148341</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1298,11 +1298,11 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>NWG4113</t>
+          <t>NWG2463</t>
         </is>
       </c>
       <c r="B30">
-        <v>6.902499999999998</v>
+        <v>6.864999999999998</v>
       </c>
       <c r="C30">
         <v>0.602981760500313</v>
@@ -1311,14 +1311,14 @@
         <v>35.88392971254542</v>
       </c>
       <c r="E30">
-        <v>4.970804012851655</v>
+        <v>4.933304012851655</v>
       </c>
       <c r="F30">
-        <v>8.834195987148341</v>
+        <v>8.796695987148341</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> abcde   </t>
+          <t xml:space="preserve">  bcde   </t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1330,27 +1330,27 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>NWG2463</t>
+          <t>Ferimon</t>
         </is>
       </c>
       <c r="B31">
-        <v>6.864999999999998</v>
+        <v>6.169999999999998</v>
       </c>
       <c r="C31">
         <v>0.602981760500313</v>
       </c>
       <c r="D31">
-        <v>35.88392971254542</v>
+        <v>35.88392971254558</v>
       </c>
       <c r="E31">
-        <v>4.933304012851655</v>
+        <v>4.238304012851656</v>
       </c>
       <c r="F31">
-        <v>8.796695987148341</v>
+        <v>8.101695987148339</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t xml:space="preserve">  bcde   </t>
+          <t xml:space="preserve">   cdef  </t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1362,27 +1362,27 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Ferimon</t>
+          <t>NWG4000</t>
         </is>
       </c>
       <c r="B32">
-        <v>6.169999999999998</v>
+        <v>6.022499999999999</v>
       </c>
       <c r="C32">
-        <v>0.602981760500313</v>
+        <v>0.6029817605003132</v>
       </c>
       <c r="D32">
-        <v>35.88392971254558</v>
+        <v>35.88392971254542</v>
       </c>
       <c r="E32">
-        <v>4.238304012851656</v>
+        <v>4.090804012851656</v>
       </c>
       <c r="F32">
-        <v>8.101695987148339</v>
+        <v>7.954195987148342</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t xml:space="preserve">   cdef  </t>
+          <t xml:space="preserve">    def  </t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1394,27 +1394,27 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>NWG4000</t>
+          <t>Vega</t>
         </is>
       </c>
       <c r="B33">
-        <v>6.022499999999999</v>
+        <v>5.77</v>
       </c>
       <c r="C33">
         <v>0.6029817605003132</v>
       </c>
       <c r="D33">
-        <v>35.88392971254542</v>
+        <v>35.88392971254551</v>
       </c>
       <c r="E33">
-        <v>4.090804012851656</v>
+        <v>3.838304012851657</v>
       </c>
       <c r="F33">
-        <v>7.954195987148342</v>
+        <v>7.701695987148342</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t xml:space="preserve">    def  </t>
+          <t xml:space="preserve">    defg </t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1426,27 +1426,27 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Vega</t>
+          <t>Henola</t>
         </is>
       </c>
       <c r="B34">
-        <v>5.77</v>
+        <v>4.099520405718135</v>
       </c>
       <c r="C34">
-        <v>0.6029817605003132</v>
+        <v>0.6860930888696837</v>
       </c>
       <c r="D34">
-        <v>35.88392971254551</v>
+        <v>42.64730574362865</v>
       </c>
       <c r="E34">
-        <v>3.838304012851657</v>
+        <v>1.92677755959064</v>
       </c>
       <c r="F34">
-        <v>7.701695987148342</v>
+        <v>6.272263251845629</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t xml:space="preserve">    defg </t>
+          <t xml:space="preserve">     efgh</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1458,27 +1458,27 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Henola</t>
+          <t>Earlina</t>
         </is>
       </c>
       <c r="B35">
-        <v>4.099520405718135</v>
+        <v>3.217499999999998</v>
       </c>
       <c r="C35">
-        <v>0.6860930888696837</v>
+        <v>0.602981760500313</v>
       </c>
       <c r="D35">
-        <v>42.64730574362865</v>
+        <v>35.88392971254551</v>
       </c>
       <c r="E35">
-        <v>1.92677755959064</v>
+        <v>1.285804012851657</v>
       </c>
       <c r="F35">
-        <v>6.272263251845629</v>
+        <v>5.149195987148341</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t xml:space="preserve">     efgh</t>
+          <t xml:space="preserve">      fgh</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -1490,27 +1490,27 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Earlina</t>
+          <t>CFX-2</t>
         </is>
       </c>
       <c r="B36">
-        <v>3.217499999999998</v>
+        <v>2.839999999999998</v>
       </c>
       <c r="C36">
-        <v>0.602981760500313</v>
+        <v>0.6029817605003132</v>
       </c>
       <c r="D36">
-        <v>35.88392971254551</v>
+        <v>35.88392971254542</v>
       </c>
       <c r="E36">
-        <v>1.285804012851657</v>
+        <v>0.9083040128516549</v>
       </c>
       <c r="F36">
-        <v>5.149195987148341</v>
+        <v>4.771695987148341</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t xml:space="preserve">      fgh</t>
+          <t xml:space="preserve">       gh</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -1522,27 +1522,27 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>CFX-2</t>
+          <t>Amaze</t>
         </is>
       </c>
       <c r="B37">
-        <v>2.839999999999998</v>
+        <v>2.564999999999939</v>
       </c>
       <c r="C37">
-        <v>0.6029817605003132</v>
+        <v>0.6029817605003149</v>
       </c>
       <c r="D37">
-        <v>35.88392971254542</v>
+        <v>35.88392971254528</v>
       </c>
       <c r="E37">
-        <v>0.9083040128516549</v>
+        <v>0.6333040128515892</v>
       </c>
       <c r="F37">
-        <v>4.771695987148341</v>
+        <v>4.496695987148288</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t xml:space="preserve">       gh</t>
+          <t xml:space="preserve">        h</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -1554,55 +1554,55 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Amaze</t>
+          <t>Futura83</t>
         </is>
       </c>
       <c r="B38">
-        <v>2.564999999999939</v>
+        <v>5.067500000000005</v>
       </c>
       <c r="C38">
-        <v>0.6029817605003149</v>
+        <v>0.6454943563378637</v>
       </c>
       <c r="D38">
-        <v>35.88392971254528</v>
+        <v>16.41723169183825</v>
       </c>
       <c r="E38">
-        <v>0.6333040128515892</v>
+        <v>2.928416492183981</v>
       </c>
       <c r="F38">
-        <v>4.496695987148288</v>
+        <v>7.206583507816029</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t xml:space="preserve">        h</t>
+          <t xml:space="preserve"> a</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Chippewa County</t>
+          <t>Whirling Thunder</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Futura83</t>
+          <t>Enectarol</t>
         </is>
       </c>
       <c r="B39">
-        <v>5.067500000000005</v>
+        <v>4.980000000000006</v>
       </c>
       <c r="C39">
-        <v>0.6454943563378637</v>
+        <v>0.6454943563378636</v>
       </c>
       <c r="D39">
-        <v>16.41723169183825</v>
+        <v>16.41723169183824</v>
       </c>
       <c r="E39">
-        <v>2.928416492183981</v>
+        <v>2.840916492183981</v>
       </c>
       <c r="F39">
-        <v>7.206583507816029</v>
+        <v>7.119083507816031</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -1618,23 +1618,23 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Enectarol</t>
+          <t>Futura75</t>
         </is>
       </c>
       <c r="B40">
-        <v>4.980000000000006</v>
+        <v>4.925000000000005</v>
       </c>
       <c r="C40">
         <v>0.6454943563378636</v>
       </c>
       <c r="D40">
-        <v>16.41723169183824</v>
+        <v>16.41723169183825</v>
       </c>
       <c r="E40">
-        <v>2.840916492183981</v>
+        <v>2.785916492183981</v>
       </c>
       <c r="F40">
-        <v>7.119083507816031</v>
+        <v>7.064083507816029</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -1650,23 +1650,23 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Futura75</t>
+          <t>Carmenecta</t>
         </is>
       </c>
       <c r="B41">
-        <v>4.925000000000005</v>
+        <v>4.697500000000005</v>
       </c>
       <c r="C41">
         <v>0.6454943563378636</v>
       </c>
       <c r="D41">
-        <v>16.41723169183825</v>
+        <v>16.41723169183826</v>
       </c>
       <c r="E41">
-        <v>2.785916492183981</v>
+        <v>2.558416492183981</v>
       </c>
       <c r="F41">
-        <v>7.064083507816029</v>
+        <v>6.836583507816029</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -1682,23 +1682,23 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Carmenecta</t>
+          <t>Fibror79</t>
         </is>
       </c>
       <c r="B42">
-        <v>4.697500000000005</v>
+        <v>4.317500000000005</v>
       </c>
       <c r="C42">
         <v>0.6454943563378636</v>
       </c>
       <c r="D42">
-        <v>16.41723169183826</v>
+        <v>16.41723169183824</v>
       </c>
       <c r="E42">
-        <v>2.558416492183981</v>
+        <v>2.17841649218398</v>
       </c>
       <c r="F42">
-        <v>6.836583507816029</v>
+        <v>6.45658350781603</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -1714,23 +1714,23 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Fibror79</t>
+          <t>Santhica70</t>
         </is>
       </c>
       <c r="B43">
-        <v>4.317500000000005</v>
+        <v>4.080000000000005</v>
       </c>
       <c r="C43">
-        <v>0.6454943563378636</v>
+        <v>0.6454943563378638</v>
       </c>
       <c r="D43">
-        <v>16.41723169183824</v>
+        <v>16.41723169183826</v>
       </c>
       <c r="E43">
-        <v>2.17841649218398</v>
+        <v>1.940916492183981</v>
       </c>
       <c r="F43">
-        <v>6.45658350781603</v>
+        <v>6.21908350781603</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -1746,23 +1746,23 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Santhica70</t>
+          <t>Orion33</t>
         </is>
       </c>
       <c r="B44">
-        <v>4.080000000000005</v>
+        <v>4.057500000000005</v>
       </c>
       <c r="C44">
-        <v>0.6454943563378638</v>
+        <v>0.6454943563378637</v>
       </c>
       <c r="D44">
-        <v>16.41723169183826</v>
+        <v>16.41723169183825</v>
       </c>
       <c r="E44">
-        <v>1.940916492183981</v>
+        <v>1.918416492183981</v>
       </c>
       <c r="F44">
-        <v>6.21908350781603</v>
+        <v>6.19658350781603</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -1778,23 +1778,23 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Orion33</t>
+          <t>Ferimon</t>
         </is>
       </c>
       <c r="B45">
-        <v>4.057500000000005</v>
+        <v>3.997500000000004</v>
       </c>
       <c r="C45">
-        <v>0.6454943563378637</v>
+        <v>0.6454943563378636</v>
       </c>
       <c r="D45">
         <v>16.41723169183825</v>
       </c>
       <c r="E45">
-        <v>1.918416492183981</v>
+        <v>1.85841649218398</v>
       </c>
       <c r="F45">
-        <v>6.19658350781603</v>
+        <v>6.136583507816029</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -1810,23 +1810,23 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Ferimon</t>
+          <t>Bialob</t>
         </is>
       </c>
       <c r="B46">
-        <v>3.997500000000004</v>
+        <v>3.977499999999998</v>
       </c>
       <c r="C46">
-        <v>0.6454943563378636</v>
+        <v>0.6454943563378643</v>
       </c>
       <c r="D46">
-        <v>16.41723169183825</v>
+        <v>16.41723169183824</v>
       </c>
       <c r="E46">
-        <v>1.85841649218398</v>
+        <v>1.838416492183971</v>
       </c>
       <c r="F46">
-        <v>6.136583507816029</v>
+        <v>6.116583507816025</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -1842,23 +1842,23 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Bialob</t>
+          <t>Tibor</t>
         </is>
       </c>
       <c r="B47">
-        <v>3.977499999999998</v>
+        <v>3.855000000000005</v>
       </c>
       <c r="C47">
-        <v>0.6454943563378643</v>
+        <v>0.6454943563378637</v>
       </c>
       <c r="D47">
-        <v>16.41723169183824</v>
+        <v>16.41723169183827</v>
       </c>
       <c r="E47">
-        <v>1.838416492183971</v>
+        <v>1.715916492183981</v>
       </c>
       <c r="F47">
-        <v>6.116583507816025</v>
+        <v>5.994083507816029</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -1874,23 +1874,23 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Tibor</t>
+          <t>Muka</t>
         </is>
       </c>
       <c r="B48">
-        <v>3.855000000000005</v>
+        <v>3.147500000000005</v>
       </c>
       <c r="C48">
-        <v>0.6454943563378637</v>
+        <v>0.6454943563378636</v>
       </c>
       <c r="D48">
         <v>16.41723169183827</v>
       </c>
       <c r="E48">
-        <v>1.715916492183981</v>
+        <v>1.008416492183981</v>
       </c>
       <c r="F48">
-        <v>5.994083507816029</v>
+        <v>5.286583507816029</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -1906,23 +1906,23 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Muka</t>
+          <t>USO31</t>
         </is>
       </c>
       <c r="B49">
-        <v>3.147500000000005</v>
+        <v>2.682500000000005</v>
       </c>
       <c r="C49">
-        <v>0.6454943563378636</v>
+        <v>0.6454943563378637</v>
       </c>
       <c r="D49">
         <v>16.41723169183827</v>
       </c>
       <c r="E49">
-        <v>1.008416492183981</v>
+        <v>0.5434164921839808</v>
       </c>
       <c r="F49">
-        <v>5.286583507816029</v>
+        <v>4.82158350781603</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -1930,38 +1930,6 @@
         </is>
       </c>
       <c r="H49" t="inlineStr">
-        <is>
-          <t>Whirling Thunder</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>USO31</t>
-        </is>
-      </c>
-      <c r="B50">
-        <v>2.682500000000005</v>
-      </c>
-      <c r="C50">
-        <v>0.6454943563378637</v>
-      </c>
-      <c r="D50">
-        <v>16.41723169183827</v>
-      </c>
-      <c r="E50">
-        <v>0.5434164921839808</v>
-      </c>
-      <c r="F50">
-        <v>4.82158350781603</v>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> a</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
         <is>
           <t>Whirling Thunder</t>
         </is>
